--- a/Spreadsheets/Hardware.xlsx
+++ b/Spreadsheets/Hardware.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHR5S\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152445DC-5D6D-4204-A459-1EE7DDD5F2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6A6D4-B598-443A-A249-E657C170A824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="360" windowWidth="13710" windowHeight="15240" activeTab="2" xr2:uid="{19DF9771-225D-42C7-9762-3A147FA5560B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{19DF9771-225D-42C7-9762-3A147FA5560B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
-    <sheet name="Lighting" sheetId="2" r:id="rId2"/>
+    <sheet name="Electrical" sheetId="2" r:id="rId2"/>
     <sheet name="Plumbing" sheetId="3" r:id="rId3"/>
+    <sheet name="Flooring" sheetId="4" r:id="rId4"/>
+    <sheet name="Lumber" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Hammer</t>
   </si>
@@ -56,9 +58,6 @@
     <t>Saw</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>Lightbulbs</t>
   </si>
   <si>
@@ -78,14 +77,79 @@
   </si>
   <si>
     <t>PVC Pipe(ft)</t>
+  </si>
+  <si>
+    <t>Breakers</t>
+  </si>
+  <si>
+    <t>Extension Cords</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Fuses</t>
+  </si>
+  <si>
+    <t>Caulking</t>
+  </si>
+  <si>
+    <t>Valves</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>Carpet (ft.)</t>
+  </si>
+  <si>
+    <t>Floor Finish</t>
+  </si>
+  <si>
+    <t>Versabond</t>
+  </si>
+  <si>
+    <t>Marble Tile</t>
+  </si>
+  <si>
+    <t>Wood Tile</t>
+  </si>
+  <si>
+    <t>2x4x8</t>
+  </si>
+  <si>
+    <t>Chainlink</t>
+  </si>
+  <si>
+    <t>Pickets</t>
+  </si>
+  <si>
+    <t>Mailbox</t>
+  </si>
+  <si>
+    <t>Sheetrock</t>
+  </si>
+  <si>
+    <t>Concrete Mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,20 +496,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6FC64-C24A-4113-A6FE-C7926287FD00}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -460,7 +530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -468,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -476,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -484,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -499,44 +569,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB45F6-2601-47EB-BF2E-E4DF8F8353FC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8197D-49E7-430D-B578-175128313165}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>600</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -544,54 +716,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8197D-49E7-430D-B578-175128313165}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24E1605-1909-48E8-8B4C-B6B7A50B538C}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD2B00-D21E-448A-8231-9B7CA76B9215}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
